--- a/results/I3_N5_M2_T45_C150_DepCentral_s1_P6_res.xlsx
+++ b/results/I3_N5_M2_T45_C150_DepCentral_s1_P6_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1393.458085006836</v>
+        <v>235.7766532757042</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.01100015640258789</v>
+        <v>0.005000114440917969</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>32.70808500682834</v>
+        <v>25.77665327570422</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5.686004039859049</v>
+        <v>4.741951075243185</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5.686004039859049</v>
+        <v>4.741951075243185</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1128.650000000008</v>
+        <v>138</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>232.1</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -557,7 +557,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -634,17 +634,6 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>3</v>
-      </c>
-      <c r="C7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -733,7 +722,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -755,7 +744,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -802,7 +791,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -813,7 +802,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -926,7 +915,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>3.788310969284332</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5">
@@ -934,7 +923,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>30</v>
+        <v>31.60181147454999</v>
       </c>
     </row>
     <row r="6">
@@ -942,7 +931,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>40.21636892110521</v>
+        <v>38.03492348172502</v>
       </c>
     </row>
     <row r="7">
@@ -950,7 +939,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>35.54582726020203</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8">
@@ -958,7 +947,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>40.26609208328135</v>
+        <v>35.51610579153741</v>
       </c>
     </row>
     <row r="9">
@@ -966,7 +955,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>44.95831999634839</v>
+        <v>42.7768745569682</v>
       </c>
     </row>
   </sheetData>
@@ -980,7 +969,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1077,20 +1066,6 @@
         <v>5</v>
       </c>
       <c r="D6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>6</v>
-      </c>
-      <c r="C7" t="n">
-        <v>3</v>
-      </c>
-      <c r="D7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1193,7 +1168,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>115.6100000000003</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8">
@@ -1204,7 +1179,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>113.5950000000003</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9">
@@ -1215,7 +1190,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>115.2400000000003</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10">
@@ -1226,7 +1201,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>111.4400000000003</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11">
@@ -1237,7 +1212,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>113.6550000000003</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12">
@@ -1248,7 +1223,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>40.77499999999971</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13">
@@ -1259,7 +1234,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>34.87999999999971</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14">
@@ -1270,7 +1245,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>37.77499999999971</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15">
@@ -1281,7 +1256,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>41.01499999999971</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16">
@@ -1292,7 +1267,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>41.88499999999971</v>
+        <v>44</v>
       </c>
     </row>
     <row r="17">
@@ -1303,7 +1278,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>125.845</v>
+        <v>108</v>
       </c>
     </row>
     <row r="18">
@@ -1314,7 +1289,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>123.42</v>
+        <v>113</v>
       </c>
     </row>
     <row r="19">
@@ -1325,7 +1300,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>112.685</v>
+        <v>115</v>
       </c>
     </row>
     <row r="20">
@@ -1336,7 +1311,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>123.985</v>
+        <v>111</v>
       </c>
     </row>
     <row r="21">
@@ -1347,7 +1322,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>124.63</v>
+        <v>106</v>
       </c>
     </row>
     <row r="22">
@@ -1358,7 +1333,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>201.735</v>
+        <v>164</v>
       </c>
     </row>
     <row r="23">
@@ -1369,7 +1344,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>199.11</v>
+        <v>165</v>
       </c>
     </row>
     <row r="24">
@@ -1380,7 +1355,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>192.885</v>
+        <v>163</v>
       </c>
     </row>
     <row r="25">
@@ -1391,7 +1366,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>204.2400000000005</v>
+        <v>163</v>
       </c>
     </row>
     <row r="26">
@@ -1402,7 +1377,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>200.195</v>
+        <v>164</v>
       </c>
     </row>
     <row r="27">
@@ -1413,7 +1388,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>217.3350000000007</v>
+        <v>117</v>
       </c>
     </row>
     <row r="28">
@@ -1424,7 +1399,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>209.7150000000007</v>
+        <v>108</v>
       </c>
     </row>
     <row r="29">
@@ -1435,7 +1410,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>213.5050000000006</v>
+        <v>106</v>
       </c>
     </row>
     <row r="30">
@@ -1446,7 +1421,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>208.3850000000007</v>
+        <v>113</v>
       </c>
     </row>
     <row r="31">
@@ -1457,7 +1432,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>217.2200000000007</v>
+        <v>117</v>
       </c>
     </row>
     <row r="32">
@@ -1468,7 +1443,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>217.3350000000007</v>
+        <v>108</v>
       </c>
     </row>
     <row r="33">
@@ -1479,7 +1454,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>209.7150000000007</v>
+        <v>113</v>
       </c>
     </row>
     <row r="34">
@@ -1490,7 +1465,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>213.5050000000006</v>
+        <v>115</v>
       </c>
     </row>
     <row r="35">
@@ -1501,7 +1476,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>208.3850000000007</v>
+        <v>111</v>
       </c>
     </row>
     <row r="36">
@@ -1512,7 +1487,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>217.2200000000007</v>
+        <v>106</v>
       </c>
     </row>
     <row r="37">
@@ -1523,7 +1498,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>201.735</v>
+        <v>164</v>
       </c>
     </row>
     <row r="38">
@@ -1534,7 +1509,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>199.11</v>
+        <v>165</v>
       </c>
     </row>
     <row r="39">
@@ -1545,7 +1520,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>192.885</v>
+        <v>163</v>
       </c>
     </row>
     <row r="40">
@@ -1556,7 +1531,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>204.2400000000005</v>
+        <v>163</v>
       </c>
     </row>
     <row r="41">
@@ -1567,7 +1542,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>200.195</v>
+        <v>164</v>
       </c>
     </row>
   </sheetData>
@@ -1614,7 +1589,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>67.33500000000066</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -1625,7 +1600,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>59.71500000000066</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -1636,7 +1611,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>63.50500000000065</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -1647,7 +1622,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>58.38500000000067</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1658,7 +1633,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>67.22000000000065</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1669,7 +1644,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>51.73500000000001</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8">
@@ -1680,7 +1655,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>49.11000000000001</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9">
@@ -1691,7 +1666,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>42.88499999999999</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10">
@@ -1702,7 +1677,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>54.24000000000052</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11">
@@ -1713,7 +1688,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>50.19499999999999</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -1760,7 +1735,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>11.36</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -1771,7 +1746,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>14.055</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -1782,7 +1757,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>21.615</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -1793,7 +1768,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>15.815</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -1804,7 +1779,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>9.824999999999999</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7">
@@ -1815,7 +1790,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>6.27</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1826,7 +1801,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>10.345</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1837,7 +1812,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>8.875</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1848,7 +1823,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>10.51</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1859,7 +1834,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>7.380000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -2038,7 +2013,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2118,61 +2093,6 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>1</v>
-      </c>
-      <c r="C7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>5</v>
-      </c>
-      <c r="B8" t="n">
-        <v>2</v>
-      </c>
-      <c r="C8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>5</v>
-      </c>
-      <c r="B9" t="n">
-        <v>3</v>
-      </c>
-      <c r="C9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>5</v>
-      </c>
-      <c r="B10" t="n">
-        <v>4</v>
-      </c>
-      <c r="C10" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>5</v>
-      </c>
-      <c r="B11" t="n">
-        <v>5</v>
-      </c>
-      <c r="C11" t="n">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
